--- a/biology/Médecine/Hôpital_Tarnier/Hôpital_Tarnier.xlsx
+++ b/biology/Médecine/Hôpital_Tarnier/Hôpital_Tarnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Tarnier</t>
+          <t>Hôpital_Tarnier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'hôpital Tarnier (autrefois clinique Tarnier) est un hôpital de l'Assistance publique - Hôpitaux de Paris (AP-HP) situé dans le 6e arrondissement de Paris. Il est rattaché à l'hôpital Cochin[1].
+L'hôpital Tarnier (autrefois clinique Tarnier) est un hôpital de l'Assistance publique - Hôpitaux de Paris (AP-HP) situé dans le 6e arrondissement de Paris. Il est rattaché à l'hôpital Cochin.
 Dénommé clinique d'Assas à sa création en 1881, cet établissement qui recevra le nom du titulaire de la première chaire de clinique d'accouchement, Stéphane Tarnier après 1897, est situé au no 89 de la rue d'Assas. Il est principalement desservi par la RER B, station Port-Royal.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Tarnier</t>
+          <t>Hôpital_Tarnier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Construit sur des terrains détachés du jardin du Luxembourg, à l'extrémité de la rue d'Assas, à l'emplacement de l'ancienne pépinière du Luxembourg et, plus anciennement, de l'enclos de la chartreuse de Paris, démolie durant le Directoire, la nouvelle « Clinique d'accouchement », qui compte 74 lits, est inaugurée en avril 1881.
-En 1886, le médecin et obstétricien français Stéphane Tarnier est nommé à la chaire de la rue d'Assas (anciennement rue de l'Ouest), et le transforme en centre d’accouchement et de prise en charge des parturientes et de leurs enfants, dénommé « clinique d'Assas »[2]. 
-Après sa mort, l'établissement sera renommé « clinique Tarnier ». En 1904, un haut-relief rappelant son œuvre est installée à la pointe du bâtiment, à l'angle de la rue d'Assas et de l'avenue de l'Observatoire. Au début du XXe siècle, des agrandissements (notamment, la création d'un étage) sont prévus mais ils ne seront jamais effectués. Sous l'impulsion du Dr Paul Bar, ancien élève de Stéphane Tarnier, l'établissement bénéficie de l'installation d'une salle d'opérations et d'une salle de stérilisation[3][réf. non conforme].
-En 1946, la clinique devient un centre de néo-natalogie équipé des moyens techniques les plus modernes de l'époque, puis en juillet 1960 la clinique se transforme pour devenir un service de dermatologie qui sera rattaché à l'hôpital Cochin[4][source insuffisante]. À la fin du XXe siècle, cette structure accueille chaque semaine près de huit cents personnes en consultation et le personnel médical effectue environ trois cents opérations par mois[5].
-Durant les années 2010, l'hôpital abritait toujours des consultations en psychiatrie et en dermato-vénérologie ; ces dernières ont été relocalisées sur le site de Port-Royal en juillet 2021[6]. Selon un article publié par le journal Le Parisien, le site de l’hôpital Tarnier, considéré comme de plus en plus vétuste, devrait faire l’objet d’un projet de la ville de Paris qui sera présenté avant la fin de l’année 2021. Des logements pour chercheurs pourraient y être aménagés[7].
+En 1886, le médecin et obstétricien français Stéphane Tarnier est nommé à la chaire de la rue d'Assas (anciennement rue de l'Ouest), et le transforme en centre d’accouchement et de prise en charge des parturientes et de leurs enfants, dénommé « clinique d'Assas ». 
+Après sa mort, l'établissement sera renommé « clinique Tarnier ». En 1904, un haut-relief rappelant son œuvre est installée à la pointe du bâtiment, à l'angle de la rue d'Assas et de l'avenue de l'Observatoire. Au début du XXe siècle, des agrandissements (notamment, la création d'un étage) sont prévus mais ils ne seront jamais effectués. Sous l'impulsion du Dr Paul Bar, ancien élève de Stéphane Tarnier, l'établissement bénéficie de l'installation d'une salle d'opérations et d'une salle de stérilisation[réf. non conforme].
+En 1946, la clinique devient un centre de néo-natalogie équipé des moyens techniques les plus modernes de l'époque, puis en juillet 1960 la clinique se transforme pour devenir un service de dermatologie qui sera rattaché à l'hôpital Cochin[source insuffisante]. À la fin du XXe siècle, cette structure accueille chaque semaine près de huit cents personnes en consultation et le personnel médical effectue environ trois cents opérations par mois.
+Durant les années 2010, l'hôpital abritait toujours des consultations en psychiatrie et en dermato-vénérologie ; ces dernières ont été relocalisées sur le site de Port-Royal en juillet 2021. Selon un article publié par le journal Le Parisien, le site de l’hôpital Tarnier, considéré comme de plus en plus vétuste, devrait faire l’objet d’un projet de la ville de Paris qui sera présenté avant la fin de l’année 2021. Des logements pour chercheurs pourraient y être aménagés.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Tarnier</t>
+          <t>Hôpital_Tarnier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Historique de la chaire de la clinique obstétricale (1886-1960)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voici, ci-dessous, la liste des détenteurs de la chaire de la clinique obstétricale de l'établissement jusqu'en 1960 [8]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici, ci-dessous, la liste des détenteurs de la chaire de la clinique obstétricale de l'établissement jusqu'en 1960 :
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Tarnier</t>
+          <t>Hôpital_Tarnier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Situation
-Le bâtiment est situé dans un triangle formé par la rue d'Assas, une des principales voies du quartier Notre-Dame-des-Champs, dans le 6e arrondissement de Paris, la rue des Chartreux dans ce même quartier [Note 1] et l'avenue de l'Observatoire, qui sépare ce quartier du 5e arrondissement  .
-Accès
-L'établissement est notamment desservi par la ligne B du RER à la gare de Port-Royal.
+          <t>Situation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bâtiment est situé dans un triangle formé par la rue d'Assas, une des principales voies du quartier Notre-Dame-des-Champs, dans le 6e arrondissement de Paris, la rue des Chartreux dans ce même quartier [Note 1] et l'avenue de l'Observatoire, qui sépare ce quartier du 5e arrondissement  .
 </t>
         </is>
       </c>
@@ -595,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Tarnier</t>
+          <t>Hôpital_Tarnier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,12 +629,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Organisation</t>
+          <t>Situation et accès</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rattaché au groupe hospitalo–universitaire « AP-HP Centre – Université Paris-Cité » et directement à l'hôpital Cochin, situé à proximité (mais dans le 14e arrondissement), l'établissement propose un service de consultations psychiatriques dirigés par le Pr Bernard Granger, dont une unité de jour prenant en charge diverses pathologies liées à des troubles du comportement[9].
+          <t>Accès</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'établissement est notamment desservi par la ligne B du RER à la gare de Port-Royal.
 </t>
         </is>
       </c>
@@ -626,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Tarnier</t>
+          <t>Hôpital_Tarnier</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,12 +666,47 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rattaché au groupe hospitalo–universitaire « AP-HP Centre – Université Paris-Cité » et directement à l'hôpital Cochin, situé à proximité (mais dans le 14e arrondissement), l'établissement propose un service de consultations psychiatriques dirigés par le Pr Bernard Granger, dont une unité de jour prenant en charge diverses pathologies liées à des troubles du comportement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hôpital_Tarnier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Tarnier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Monument au professeur Tarnier</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un haut-relief créé à l'angle de la rue d'Assas et du boulevard de l'Observatoire et consacré au souvenir du professeur Stéphane Tarnier. Cette œuvre inaugurée en 1905 a été réalisée par le sculpteur Denys Puech (1854-1942)[10][source insuffisante].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un haut-relief créé à l'angle de la rue d'Assas et du boulevard de l'Observatoire et consacré au souvenir du professeur Stéphane Tarnier. Cette œuvre inaugurée en 1905 a été réalisée par le sculpteur Denys Puech (1854-1942)[source insuffisante].
 	Quelques photos de l'hôpital Tarnier et du monument dédié au Pr Tarnier
 			Vue de l'hôpital Tarnier depuis l'avenue de l'Observatoire.
 			Entrée des véhicules, rue d'Assas.
